--- a/medicine/Enfance/Sandrone_Dazieri/Sandrone_Dazieri.xlsx
+++ b/medicine/Enfance/Sandrone_Dazieri/Sandrone_Dazieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandrone Dazieri, né le 4 novembre 1964 à Crémone, en Lombardie, est un scénariste, un journaliste, un directeur de collection littéraire et un écrivain italien, auteur de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il suit les cours de l'école hôtelière de San Pellegrino Terme et apprend le métier de cuisinier. Il s'inscrit ensuite à la faculté des sciences politiques de Milan et vit sans domicile fixe, dormant pendant deux années dans des squats ou des maisons abandonnées. Il fréquente le centre social autogéré Leoncavallo (it) à Milan et devient un militant politique proche de l’extrême gauche italienne. Il exerce en marge divers métiers pour vivre, étant cuisinier, manœuvre ou videur.
 Retiré du monde militant, il devient lecteur et correcteur pour divers journaux, puis journaliste pour le quotidien Il manifesto, avant d'occuper un poste de directeur éditorial. Il publie en 1999 le roman policier Sandrone &amp; associé (Attenti al gorilla), puis les romans Sandrone se soigne (La Cura del Gorilla, 2001) et Le Blues de Sandrone (Gorilla Blues, 2002). Ces récits mettent en scène un émule de Dazieri qui possède une double personnalité, l'une s'éveillant quand l'autre s'endort.
@@ -552,98 +566,294 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Série Gorilla
-Attenti al gorilla (1999).Publié en français sous le titre Sandrone &amp; associé, traduction de Maria Grazzini, Paris, Éditions Métailié, coll. « Suite italienne », 2001.
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Gorilla</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Attenti al gorilla (1999).Publié en français sous le titre Sandrone &amp; associé, traduction de Maria Grazzini, Paris, Éditions Métailié, coll. « Suite italienne », 2001.
 La cura del gorilla (2001).Publié en français sous le titre Sandrone se soigne, traduction de Serge Quadruppani, Paris, Éditions Métailié, coll. « Suite italienne », 2002.
 Gorilla blues (2002).Publié en français sous le titre Le Blues de Sandrone, traduction de Serge Quadruppani, Paris, Éditions Métailié, coll. « Suite italienne », 2004.
 Il Karma del gorilla (2005).
 La bellezza è un malinteso (2010).
-La danza del Gorilla (2019).Publié en français sous le titre La Danse du Gorille, traduction de Delphine Gachet, Paris, Éditions Robert Laffont, 2022.
-Autres titres
-La città buia (2006, avec Daniele G. Genova).
+La danza del Gorilla (2019).Publié en français sous le titre La Danse du Gorille, traduction de Delphine Gachet, Paris, Éditions Robert Laffont, 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres titres</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La città buia (2006, avec Daniele G. Genova).
 È stato un attimo (2006).
 Cemento Armato (2007, avec Marco Martani).
 Uccidi il padre (2014).Publié en français sous le titre Tu tueras le père, traduction de Delphine Gachet, Paris, Éditions Robert Laffont, coll. « La bête noire », 2015.
 L'Angelo (2016).Publié en français sous le titre Tu tueras l'ange, traduction de Delphine Gachet, Paris, Éditions Robert Laffont, coll. « La bête noire », 2017.
 Il re di denari (2018).Publié en français sous le titre Tu tueras le roi, traduction de Delphine Gachet, Paris, Éditions Robert Laffont, coll. « La bête noire », 2019.
-Il male che gli uomini fanno (2022) Publié en français sous le titre Le Mal que font les hommes, Paris, Éditions Robert Laffont, coll. « La bête noire », 2023.
-Roman pour la jeunesse
-Ciak si indaga (2003).
-Essai
-Italia Overground. Mappe e reti della cultura alternativa (1996).
-Nouvelles
-Cyberpunk (1994).
+Il male che gli uomini fanno (2022) Publié en français sous le titre Le Mal que font les hommes, Paris, Éditions Robert Laffont, coll. « La bête noire », 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Roman pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ciak si indaga (2003).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Italia Overground. Mappe e reti della cultura alternativa (1996).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cyberpunk (1994).
 Bestie (2007).
 Tutto il resto è boia (2007).
 BZZZZ (2008).</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sandrone_Dazieri</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sandrone_Dazieri</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme scénariste
-Au cinéma
-2006 : La cura del gorilla, film italien réalisé par Carlo Sigon d'après le roman éponyme, avec Claudio Bisio et Stefania Rocca.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2006 : La cura del gorilla, film italien réalisé par Carlo Sigon d'après le roman éponyme, avec Claudio Bisio et Stefania Rocca.
 2008 : Jeux pervers (Un gioco da ragazze), film italien réalisé par Matteo Rovere d'après un roman d'Andrea Cotti (it).
-2009 : La valle delle ombre, film italien réalisé par Mihály Györik.
-À la télévision
-2006 : Crimini, saison une, épisode L'Ultima Battuta.
+2009 : La valle delle ombre, film italien réalisé par Mihály Györik.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2006 : Crimini, saison une, épisode L'Ultima Battuta.
 2010 : Crimini, saison deux, épisode Bestie.
 2012 : Les Spécialistes : Investigation scientifique (R.I.S. Roma - Delitti imperfetti) : saison sept, vingt épisodes.
 2010 – … : Squadra antimafia - Palermo oggi (it) ; saison deux à six, saison sept en préparation.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sandrone_Dazieri</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sandrone_Dazieri</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sandrone_Dazieri</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions notables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Prix Scerbanenco : Mention spéciale en 2011 pour le roman La Cura del Gorilla.</t>
         </is>
